--- a/exercisesLifeContingencies/survivalModels/lifeTables3/GRM_95_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/GRM_95_comm.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,15 +480,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Sx</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Cx</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Mx</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rx</t>
         </is>
@@ -520,12 +525,15 @@
         <v>2451169.497270546</v>
       </c>
       <c r="I2" t="n">
+        <v>54228642.20809022</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>365452.4892670722</v>
       </c>
     </row>
@@ -555,12 +563,15 @@
         <v>2351169.497270546</v>
       </c>
       <c r="I3" t="n">
+        <v>51777472.71081967</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>5724.250104978817</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>359728.2391620934</v>
       </c>
     </row>
@@ -590,12 +601,15 @@
         <v>2255015.651116699</v>
       </c>
       <c r="I4" t="n">
+        <v>49426303.21354912</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5724.250104978817</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>354003.9890571146</v>
       </c>
     </row>
@@ -625,12 +639,15 @@
         <v>2162560.029814925</v>
       </c>
       <c r="I5" t="n">
+        <v>47171287.56243242</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5724.250104978817</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>348279.7389521358</v>
       </c>
     </row>
@@ -660,12 +677,15 @@
         <v>2073660.393947833</v>
       </c>
       <c r="I6" t="n">
+        <v>45008727.53261749</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>342555.488847157</v>
       </c>
     </row>
@@ -695,12 +715,15 @@
         <v>1988179.974844861</v>
       </c>
       <c r="I7" t="n">
+        <v>42935067.13866967</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>336831.2387421782</v>
       </c>
     </row>
@@ -730,12 +753,15 @@
         <v>1905987.264168925</v>
       </c>
       <c r="I8" t="n">
+        <v>40946887.16382481</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>331106.9886371995</v>
       </c>
     </row>
@@ -765,12 +791,15 @@
         <v>1826955.811595911</v>
       </c>
       <c r="I9" t="n">
+        <v>39040899.89965588</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>325382.7385322206</v>
       </c>
     </row>
@@ -800,12 +829,15 @@
         <v>1750964.030275705</v>
       </c>
       <c r="I10" t="n">
+        <v>37213944.08805997</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>319658.4884272417</v>
       </c>
     </row>
@@ -835,12 +867,15 @@
         <v>1677895.009775507</v>
       </c>
       <c r="I11" t="n">
+        <v>35462980.05778426</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5724.250104978817</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>313934.2383222628</v>
       </c>
     </row>
@@ -870,12 +905,15 @@
         <v>1607636.336217623</v>
       </c>
       <c r="I12" t="n">
+        <v>33785085.04800875</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>5724.250104978817</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>308209.9882172841</v>
       </c>
     </row>
@@ -905,12 +943,15 @@
         <v>1540079.919335044</v>
       </c>
       <c r="I13" t="n">
+        <v>32177448.71179114</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>5724.250104978817</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>302485.7381123052</v>
       </c>
     </row>
@@ -940,12 +981,15 @@
         <v>1475121.826178717</v>
       </c>
       <c r="I14" t="n">
+        <v>30637368.79245609</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>296761.4880073265</v>
       </c>
     </row>
@@ -975,12 +1019,15 @@
         <v>1412662.12122071</v>
       </c>
       <c r="I15" t="n">
+        <v>29162246.96627738</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>291037.2379023476</v>
       </c>
     </row>
@@ -1010,12 +1057,15 @@
         <v>1352604.712607243</v>
       </c>
       <c r="I16" t="n">
+        <v>27749584.84505667</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>285312.9877973688</v>
       </c>
     </row>
@@ -1045,12 +1095,15 @@
         <v>1294857.204325062</v>
       </c>
       <c r="I17" t="n">
+        <v>26396980.13244943</v>
+      </c>
+      <c r="J17" t="n">
         <v>68.76203394657942</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>5724.250104978818</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>279588.73769239</v>
       </c>
     </row>
@@ -1080,12 +1133,15 @@
         <v>1239330.754053735</v>
       </c>
       <c r="I18" t="n">
+        <v>25102122.92812436</v>
+      </c>
+      <c r="J18" t="n">
         <v>66.08858613860359</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>5655.488071032239</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>273864.4875874111</v>
       </c>
     </row>
@@ -1115,12 +1171,15 @@
         <v>1186008.698519097</v>
       </c>
       <c r="I19" t="n">
+        <v>23862792.17407063</v>
+      </c>
+      <c r="J19" t="n">
         <v>63.52388855140516</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>5589.399484893635</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>268208.9995163789</v>
       </c>
     </row>
@@ -1150,12 +1209,15 @@
         <v>1134803.579860392</v>
       </c>
       <c r="I20" t="n">
+        <v>22676783.47555153</v>
+      </c>
+      <c r="J20" t="n">
         <v>61.05386482138318</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>5525.87559634223</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>262619.6000314852</v>
       </c>
     </row>
@@ -1185,12 +1247,15 @@
         <v>1085631.412730958</v>
       </c>
       <c r="I21" t="n">
+        <v>21541979.89569114</v>
+      </c>
+      <c r="J21" t="n">
         <v>58.67977675905133</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>5464.821731520846</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>257093.7244351431</v>
       </c>
     </row>
@@ -1220,12 +1285,15 @@
         <v>1038411.536663631</v>
       </c>
       <c r="I22" t="n">
+        <v>20456348.48296018</v>
+      </c>
+      <c r="J22" t="n">
         <v>56.40226256944347</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>5406.141954761795</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>251628.9027036222</v>
       </c>
     </row>
@@ -1255,12 +1323,15 @@
         <v>993066.4894525753</v>
       </c>
       <c r="I23" t="n">
+        <v>19417936.94629655</v>
+      </c>
+      <c r="J23" t="n">
         <v>54.20884583434795</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>5349.739692192352</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>246222.7607488605</v>
       </c>
     </row>
@@ -1290,12 +1361,15 @@
         <v>949521.8847814377</v>
       </c>
       <c r="I24" t="n">
+        <v>18424870.45684398</v>
+      </c>
+      <c r="J24" t="n">
         <v>52.10063346665189</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>5295.530846358004</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>240873.0210566681</v>
       </c>
     </row>
@@ -1325,12 +1399,15 @@
         <v>907706.2814434858</v>
       </c>
       <c r="I25" t="n">
+        <v>17475348.57206254</v>
+      </c>
+      <c r="J25" t="n">
         <v>50.0781804981999</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>5243.430212891351</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>235577.4902103101</v>
       </c>
     </row>
@@ -1360,12 +1437,15 @@
         <v>867551.071175076</v>
       </c>
       <c r="I26" t="n">
+        <v>16567642.29061905</v>
+      </c>
+      <c r="J26" t="n">
         <v>48.13042872029793</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>5193.352032393153</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>230334.0599974187</v>
       </c>
     </row>
@@ -1395,12 +1475,15 @@
         <v>828990.3702513337</v>
       </c>
       <c r="I27" t="n">
+        <v>15700091.21944398</v>
+      </c>
+      <c r="J27" t="n">
         <v>46.25834906158728</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>5145.221603672853</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>225140.7079650256</v>
       </c>
     </row>
@@ -1430,12 +1513,15 @@
         <v>791960.9036379941</v>
       </c>
       <c r="I28" t="n">
+        <v>14871100.84919264</v>
+      </c>
+      <c r="J28" t="n">
         <v>44.4624240500946</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>5098.963254611266</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>219995.4863613527</v>
       </c>
     </row>
@@ -1465,12 +1551,15 @@
         <v>756401.9056280752</v>
       </c>
       <c r="I29" t="n">
+        <v>14079139.94555465</v>
+      </c>
+      <c r="J29" t="n">
         <v>42.73285258063243</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>5054.500830561172</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>214896.5231067415</v>
       </c>
     </row>
@@ -1500,12 +1589,15 @@
         <v>722255.0238118188</v>
       </c>
       <c r="I30" t="n">
+        <v>13322738.03992657</v>
+      </c>
+      <c r="J30" t="n">
         <v>41.07048621258618</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>5011.76797798054</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>209842.0222761803</v>
       </c>
     </row>
@@ -1535,12 +1627,15 @@
         <v>689464.2164564605</v>
       </c>
       <c r="I31" t="n">
+        <v>12600483.01611475</v>
+      </c>
+      <c r="J31" t="n">
         <v>39.47574428808721</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>4970.697491767954</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>204830.2542981998</v>
       </c>
     </row>
@@ -1570,12 +1665,15 @@
         <v>657975.6644855979</v>
       </c>
       <c r="I32" t="n">
+        <v>11911018.79965829</v>
+      </c>
+      <c r="J32" t="n">
         <v>37.96319997213914</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>4931.221747479867</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>199859.5568064318</v>
       </c>
     </row>
@@ -1605,12 +1703,15 @@
         <v>627737.6864117489</v>
       </c>
       <c r="I33" t="n">
+        <v>11253043.13517269</v>
+      </c>
+      <c r="J33" t="n">
         <v>36.70390467482551</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>4893.258547507729</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>194928.3350589519</v>
       </c>
     </row>
@@ -1640,12 +1741,15 @@
         <v>598700.6706945585</v>
       </c>
       <c r="I34" t="n">
+        <v>10625305.44876095</v>
+      </c>
+      <c r="J34" t="n">
         <v>35.72573887949136</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>4856.554642832902</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>190035.0765114442</v>
       </c>
     </row>
@@ -1675,12 +1779,15 @@
         <v>570817.167178858</v>
       </c>
       <c r="I35" t="n">
+        <v>10026604.77806639</v>
+      </c>
+      <c r="J35" t="n">
         <v>35.00360184613787</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>4820.82890395341</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>185178.5218686113</v>
       </c>
     </row>
@@ -1710,12 +1817,15 @@
         <v>544041.8318449483</v>
       </c>
       <c r="I36" t="n">
+        <v>9455787.610887531</v>
+      </c>
+      <c r="J36" t="n">
         <v>34.5237777021333</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>4785.825302107272</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>180357.6929646579</v>
       </c>
     </row>
@@ -1745,12 +1855,15 @@
         <v>518331.3207026506</v>
       </c>
       <c r="I37" t="n">
+        <v>8911745.779042583</v>
+      </c>
+      <c r="J37" t="n">
         <v>34.26762372273522</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>4751.301524405139</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>175571.8676625506</v>
       </c>
     </row>
@@ -1780,12 +1893,15 @@
         <v>493644.1991512204</v>
       </c>
       <c r="I38" t="n">
+        <v>8393414.458339933</v>
+      </c>
+      <c r="J38" t="n">
         <v>34.2194313153196</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>4717.033900682404</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>170820.5661381455</v>
       </c>
     </row>
@@ -1815,12 +1931,15 @@
         <v>469940.8498985679</v>
       </c>
       <c r="I39" t="n">
+        <v>7899770.259188711</v>
+      </c>
+      <c r="J39" t="n">
         <v>34.37689774432025</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>4682.814469367085</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>166103.5322374631</v>
       </c>
     </row>
@@ -1850,12 +1969,15 @@
         <v>447183.3873561791</v>
       </c>
       <c r="I40" t="n">
+        <v>7429829.409290141</v>
+      </c>
+      <c r="J40" t="n">
         <v>34.73589906194813</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>4648.437571622764</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>161420.717768096</v>
       </c>
     </row>
@@ -1885,12 +2007,15 @@
         <v>425335.5887323955</v>
       </c>
       <c r="I41" t="n">
+        <v>6982646.021933964</v>
+      </c>
+      <c r="J41" t="n">
         <v>35.29272320881777</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>4613.701672560815</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>156772.2801964732</v>
       </c>
     </row>
@@ -1920,12 +2045,15 @@
         <v>404362.8259547424</v>
       </c>
       <c r="I42" t="n">
+        <v>6557310.433201569</v>
+      </c>
+      <c r="J42" t="n">
         <v>36.03611300096781</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>4578.408949351998</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>152158.5785239124</v>
       </c>
     </row>
@@ -1955,12 +2083,15 @@
         <v>384232.0006225157</v>
       </c>
       <c r="I43" t="n">
+        <v>6152947.607246826</v>
+      </c>
+      <c r="J43" t="n">
         <v>36.96165378379671</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>4542.37283635103</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>147580.1695745604</v>
       </c>
     </row>
@@ -1990,12 +2121,15 @@
         <v>364911.4739160679</v>
       </c>
       <c r="I44" t="n">
+        <v>5768715.606624311</v>
+      </c>
+      <c r="J44" t="n">
         <v>38.05787578114575</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>4505.411182567233</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>143037.7967382094</v>
       </c>
     </row>
@@ -2025,12 +2159,15 @@
         <v>346371.0060444212</v>
       </c>
       <c r="I45" t="n">
+        <v>5403804.132708242</v>
+      </c>
+      <c r="J45" t="n">
         <v>39.3246493881641</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>4467.353306786088</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>138532.3855556422</v>
       </c>
     </row>
@@ -2060,12 +2197,15 @@
         <v>328581.6909666957</v>
       </c>
       <c r="I46" t="n">
+        <v>5057433.126663822</v>
+      </c>
+      <c r="J46" t="n">
         <v>40.7855876044656</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>4428.028657397924</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>134065.0322488561</v>
       </c>
     </row>
@@ -2095,12 +2235,15 @@
         <v>311515.9049644248</v>
       </c>
       <c r="I47" t="n">
+        <v>4728851.435697126</v>
+      </c>
+      <c r="J47" t="n">
         <v>42.47028373312882</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>4387.243069793459</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>129637.0035914581</v>
       </c>
     </row>
@@ -2130,12 +2273,15 @@
         <v>295147.2809344612</v>
       </c>
       <c r="I48" t="n">
+        <v>4417335.530732701</v>
+      </c>
+      <c r="J48" t="n">
         <v>44.39418615519563</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>4344.77278606033</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>125249.7605216647</v>
       </c>
     </row>
@@ -2165,12 +2311,15 @@
         <v>279450.6896509216</v>
       </c>
       <c r="I49" t="n">
+        <v>4122188.249798239</v>
+      </c>
+      <c r="J49" t="n">
         <v>46.57360496918655</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>4300.378599905134</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>120904.9877356044</v>
       </c>
     </row>
@@ -2200,12 +2349,15 @@
         <v>264402.207602904</v>
       </c>
       <c r="I50" t="n">
+        <v>3842737.560147317</v>
+      </c>
+      <c r="J50" t="n">
         <v>49.00809983712519</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>4253.804994935947</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>116604.6091356992</v>
       </c>
     </row>
@@ -2235,12 +2387,15 @@
         <v>249979.0869309333</v>
       </c>
       <c r="I51" t="n">
+        <v>3578335.352544413</v>
+      </c>
+      <c r="J51" t="n">
         <v>51.44396027059403</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>4204.796895098822</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>112350.8041407633</v>
       </c>
     </row>
@@ -2270,12 +2425,15 @@
         <v>236159.7097692601</v>
       </c>
       <c r="I52" t="n">
+        <v>3328356.26561348</v>
+      </c>
+      <c r="J52" t="n">
         <v>53.67876873924014</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>4153.352934828228</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>108146.0072456645</v>
       </c>
     </row>
@@ -2305,12 +2463,15 @@
         <v>222923.2910740757</v>
       </c>
       <c r="I53" t="n">
+        <v>3092196.555844219</v>
+      </c>
+      <c r="J53" t="n">
         <v>55.78598151680777</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>4099.674166088987</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>103992.6543108362</v>
       </c>
     </row>
@@ -2340,12 +2501,15 @@
         <v>210249.6441743684</v>
       </c>
       <c r="I54" t="n">
+        <v>2869273.264770144</v>
+      </c>
+      <c r="J54" t="n">
         <v>57.82474547405925</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>4043.88818457218</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>99892.98014474726</v>
       </c>
     </row>
@@ -2375,12 +2539,15 @@
         <v>198119.231213859</v>
       </c>
       <c r="I55" t="n">
+        <v>2659023.620595776</v>
+      </c>
+      <c r="J55" t="n">
         <v>59.84472810904732</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>3986.063439098121</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>95849.09196017508</v>
       </c>
     </row>
@@ -2410,12 +2577,15 @@
         <v>186513.1973434586</v>
       </c>
       <c r="I56" t="n">
+        <v>2460904.389381917</v>
+      </c>
+      <c r="J56" t="n">
         <v>61.88673941876739</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>3926.218710989074</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>91863.02852107695</v>
       </c>
     </row>
@@ -2445,12 +2615,15 @@
         <v>175413.3941192595</v>
       </c>
       <c r="I57" t="n">
+        <v>2274391.192038458</v>
+      </c>
+      <c r="J57" t="n">
         <v>63.98025473200646</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>3864.331971570306</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>87936.80981008787</v>
       </c>
     </row>
@@ -2480,12 +2653,15 @@
         <v>164802.3931431023</v>
       </c>
       <c r="I58" t="n">
+        <v>2098977.797919198</v>
+      </c>
+      <c r="J58" t="n">
         <v>66.1475830250434</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>3800.3517168383</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>84072.47783851757</v>
       </c>
     </row>
@@ -2515,12 +2691,15 @@
         <v>154663.487843837</v>
       </c>
       <c r="I59" t="n">
+        <v>1934175.404776096</v>
+      </c>
+      <c r="J59" t="n">
         <v>68.40339449844484</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>3734.204133813256</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>80272.12612167928</v>
       </c>
     </row>
@@ -2550,12 +2729,15 @@
         <v>144980.6880237223</v>
       </c>
       <c r="I60" t="n">
+        <v>1779511.916932259</v>
+      </c>
+      <c r="J60" t="n">
         <v>70.7553627900385</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>3665.800739314811</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>76537.92198786604</v>
       </c>
     </row>
@@ -2585,12 +2767,15 @@
         <v>135738.7069758027</v>
       </c>
       <c r="I61" t="n">
+        <v>1634531.228908537</v>
+      </c>
+      <c r="J61" t="n">
         <v>73.20560292511384</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>3595.045376524773</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>72872.12124855121</v>
       </c>
     </row>
@@ -2620,12 +2805,15 @@
         <v>126922.9421002086</v>
       </c>
       <c r="I62" t="n">
+        <v>1498792.521932734</v>
+      </c>
+      <c r="J62" t="n">
         <v>75.74777857021623</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>3521.839773599659</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>69277.07587202644</v>
       </c>
     </row>
@@ -2655,12 +2843,15 @@
         <v>118519.4507073702</v>
       </c>
       <c r="I63" t="n">
+        <v>1371869.579832525</v>
+      </c>
+      <c r="J63" t="n">
         <v>78.37360826200602</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>3446.091995029443</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>65755.23609842677</v>
       </c>
     </row>
@@ -2690,12 +2881,15 @@
         <v>110514.9183005188</v>
       </c>
       <c r="I64" t="n">
+        <v>1253350.129125156</v>
+      </c>
+      <c r="J64" t="n">
         <v>81.06741899991896</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>3367.718386767437</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>62309.14410339732</v>
       </c>
     </row>
@@ -2725,12 +2919,15 @@
         <v>102896.6261329621</v>
       </c>
       <c r="I65" t="n">
+        <v>1142835.210824637</v>
+      </c>
+      <c r="J65" t="n">
         <v>83.29382764162344</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>3286.650967767518</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>58941.42571662988</v>
       </c>
     </row>
@@ -2760,12 +2957,15 @@
         <v>95652.41262161915</v>
       </c>
       <c r="I66" t="n">
+        <v>1039938.584691675</v>
+      </c>
+      <c r="J66" t="n">
         <v>84.82496103288535</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>3203.357140125895</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>55654.77474886236</v>
       </c>
     </row>
@@ -2795,12 +2995,15 @@
         <v>88770.11653450789</v>
       </c>
       <c r="I67" t="n">
+        <v>944286.1720700556</v>
+      </c>
+      <c r="J67" t="n">
         <v>86.03591890792013</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>3118.532179093009</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>52451.41760873647</v>
       </c>
     </row>
@@ -2830,12 +3033,15 @@
         <v>82237.34910408765</v>
       </c>
       <c r="I68" t="n">
+        <v>855516.0555355478</v>
+      </c>
+      <c r="J68" t="n">
         <v>87.21317186984831</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>3032.496260185089</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>49332.88542964346</v>
       </c>
     </row>
@@ -2865,12 +3071,15 @@
         <v>76041.87787836073</v>
       </c>
       <c r="I69" t="n">
+        <v>773278.7064314602</v>
+      </c>
+      <c r="J69" t="n">
         <v>88.56487618226437</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>2945.283088315241</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>46300.38916945837</v>
       </c>
     </row>
@@ -2900,12 +3109,15 @@
         <v>70171.90717933929</v>
       </c>
       <c r="I70" t="n">
+        <v>697236.8285530994</v>
+      </c>
+      <c r="J70" t="n">
         <v>90.23210369201006</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>2856.718212132976</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>43355.10608114312</v>
       </c>
     </row>
@@ -2935,12 +3147,15 @@
         <v>64616.26946030866</v>
       </c>
       <c r="I71" t="n">
+        <v>627064.9213737602</v>
+      </c>
+      <c r="J71" t="n">
         <v>92.29708637479277</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>2766.486108440967</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>40498.38786901015</v>
       </c>
     </row>
@@ -2970,12 +3185,15 @@
         <v>59364.54221877889</v>
       </c>
       <c r="I72" t="n">
+        <v>562448.6519134515</v>
+      </c>
+      <c r="J72" t="n">
         <v>94.79246194975315</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>2674.189022066173</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>37731.90176056918</v>
       </c>
     </row>
@@ -3005,12 +3223,15 @@
         <v>54407.10157291353</v>
       </c>
       <c r="I73" t="n">
+        <v>503084.1096946726</v>
+      </c>
+      <c r="J73" t="n">
         <v>97.70542253668094</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>2579.39656011642</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>35057.712738503</v>
       </c>
     </row>
@@ -3040,12 +3261,15 @@
         <v>49735.12418306967</v>
       </c>
       <c r="I74" t="n">
+        <v>448677.0081217591</v>
+      </c>
+      <c r="J74" t="n">
         <v>100.9452049798376</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>2481.691137579739</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>32478.31617838659</v>
       </c>
     </row>
@@ -3075,12 +3299,15 @@
         <v>45340.5436538334</v>
       </c>
       <c r="I75" t="n">
+        <v>398941.8839386894</v>
+      </c>
+      <c r="J75" t="n">
         <v>104.2507832713899</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>2380.745932599902</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>29996.62504080685</v>
       </c>
     </row>
@@ -3110,12 +3337,15 @@
         <v>41215.93065762452</v>
       </c>
       <c r="I76" t="n">
+        <v>353601.340284856</v>
+      </c>
+      <c r="J76" t="n">
         <v>107.3629614642715</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>2276.495149328512</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>27615.87910820695</v>
       </c>
     </row>
@@ -3145,12 +3375,15 @@
         <v>37354.20740607967</v>
       </c>
       <c r="I77" t="n">
+        <v>312385.4096272315</v>
+      </c>
+      <c r="J77" t="n">
         <v>110.0687296589001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>2169.132187864241</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>25339.38395887844</v>
       </c>
     </row>
@@ -3180,12 +3413,15 @@
         <v>33748.37493336621</v>
       </c>
       <c r="I78" t="n">
+        <v>275031.2022211518</v>
+      </c>
+      <c r="J78" t="n">
         <v>112.1996758298509</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>2059.06345820534</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>23170.2517710142</v>
       </c>
     </row>
@@ -3215,12 +3451,15 @@
         <v>30391.29705464678</v>
       </c>
       <c r="I79" t="n">
+        <v>241282.8272877856</v>
+      </c>
+      <c r="J79" t="n">
         <v>113.6290644119631</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>1946.86378237549</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>21111.18831280886</v>
       </c>
     </row>
@@ -3250,12 +3489,15 @@
         <v>27275.53723170795</v>
       </c>
       <c r="I80" t="n">
+        <v>210891.5302331388</v>
+      </c>
+      <c r="J80" t="n">
         <v>114.2707565255067</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>1833.234717963526</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>19164.32453043336</v>
       </c>
     </row>
@@ -3285,12 +3527,15 @@
         <v>24393.24338944796</v>
       </c>
       <c r="I81" t="n">
+        <v>183615.9930014308</v>
+      </c>
+      <c r="J81" t="n">
         <v>114.075441964226</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>1718.963961438019</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>17331.08981246984</v>
       </c>
     </row>
@@ -3320,12 +3565,15 @@
         <v>21736.07775918502</v>
       </c>
       <c r="I82" t="n">
+        <v>159222.7496119828</v>
+      </c>
+      <c r="J82" t="n">
         <v>113.0290018969531</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>1604.888519473794</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>15612.12585103182</v>
       </c>
     </row>
@@ -3355,12 +3603,15 @@
         <v>19295.18624897334</v>
       </c>
       <c r="I83" t="n">
+        <v>137486.6718527979</v>
+      </c>
+      <c r="J83" t="n">
         <v>111.1470519433457</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>1491.859517576841</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>14007.23733155802</v>
       </c>
     </row>
@@ -3390,12 +3641,15 @@
         <v>17061.20418335906</v>
       </c>
       <c r="I84" t="n">
+        <v>118191.4856038245</v>
+      </c>
+      <c r="J84" t="n">
         <v>108.4720606432744</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>1380.712465633495</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>12515.37781398118</v>
       </c>
     </row>
@@ -3425,12 +3679,15 @@
         <v>15024.29155682714</v>
       </c>
       <c r="I85" t="n">
+        <v>101130.2814204655</v>
+      </c>
+      <c r="J85" t="n">
         <v>105.0684756558433</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>1272.24040499022</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>11134.66534834769</v>
       </c>
     </row>
@@ -3460,12 +3717,15 @@
         <v>13174.19378426664</v>
       </c>
       <c r="I86" t="n">
+        <v>86105.9898636383</v>
+      </c>
+      <c r="J86" t="n">
         <v>101.0184784060583</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>1167.171929334377</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>9862.424943357468</v>
       </c>
     </row>
@@ -3495,12 +3755,15 @@
         <v>11500.32209399893</v>
       </c>
       <c r="I87" t="n">
+        <v>72931.79607937165</v>
+      </c>
+      <c r="J87" t="n">
         <v>96.41640649220662</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>1066.153450928319</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>8695.253014023092</v>
       </c>
     </row>
@@ -3530,12 +3793,15 @@
         <v>9991.848562532192</v>
       </c>
       <c r="I88" t="n">
+        <v>61431.47398537273</v>
+      </c>
+      <c r="J88" t="n">
         <v>91.36507756292922</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>969.7370444361122</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>7629.099563094774</v>
       </c>
     </row>
@@ -3565,12 +3831,15 @@
         <v>8637.809650306379</v>
       </c>
       <c r="I89" t="n">
+        <v>51439.62542284054</v>
+      </c>
+      <c r="J89" t="n">
         <v>86.01326984666346</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>878.3719668731829</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>6659.362518658661</v>
       </c>
     </row>
@@ -3600,12 +3869,15 @@
         <v>7427.214235344488</v>
       </c>
       <c r="I90" t="n">
+        <v>42801.81577253416</v>
+      </c>
+      <c r="J90" t="n">
         <v>80.63460704251909</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>792.3586970265194</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>5780.99055178548</v>
       </c>
     </row>
@@ -3635,12 +3907,15 @@
         <v>6349.19345234318</v>
       </c>
       <c r="I91" t="n">
+        <v>35374.60153718967</v>
+      </c>
+      <c r="J91" t="n">
         <v>75.42634320752529</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>711.7240899840004</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>4988.63185475896</v>
       </c>
     </row>
@@ -3670,12 +3945,15 @@
         <v>5393.269614192134</v>
       </c>
       <c r="I92" t="n">
+        <v>29025.40808484649</v>
+      </c>
+      <c r="J92" t="n">
         <v>70.48400585500953</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>636.297746776475</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>4276.907764774959</v>
       </c>
     </row>
@@ -3705,12 +3983,15 @@
         <v>4549.53842071596</v>
       </c>
       <c r="I93" t="n">
+        <v>23632.13847065435</v>
+      </c>
+      <c r="J93" t="n">
         <v>65.82869855074891</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>565.8137409214655</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>3640.610017998484</v>
       </c>
     </row>
@@ -3740,12 +4021,15 @@
         <v>3808.742432843881</v>
       </c>
       <c r="I94" t="n">
+        <v>19082.6000499384</v>
+      </c>
+      <c r="J94" t="n">
         <v>61.43148627606622</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>499.9850423707167</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>3074.796277077018</v>
       </c>
     </row>
@@ -3775,12 +4059,15 @@
         <v>3162.267296902246</v>
       </c>
       <c r="I95" t="n">
+        <v>15273.85761709451</v>
+      </c>
+      <c r="J95" t="n">
         <v>57.2321644616969</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>438.5535560946505</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>2574.811234706302</v>
       </c>
     </row>
@@ -3810,12 +4097,15 @@
         <v>2602.088075542124</v>
       </c>
       <c r="I96" t="n">
+        <v>12111.59032019227</v>
+      </c>
+      <c r="J96" t="n">
         <v>53.00112391134755</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>381.3213916329536</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>2136.257678611651</v>
       </c>
     </row>
@@ -3845,12 +4135,15 @@
         <v>2120.686373311396</v>
       </c>
       <c r="I97" t="n">
+        <v>9509.502244650141</v>
+      </c>
+      <c r="J97" t="n">
         <v>48.58577308719932</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>328.320267721606</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>1754.936286978697</v>
       </c>
     </row>
@@ -3880,12 +4173,15 @@
         <v>1710.801245077813</v>
       </c>
       <c r="I98" t="n">
+        <v>7388.815871338745</v>
+      </c>
+      <c r="J98" t="n">
         <v>44.04880992965695</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>279.7344946344068</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>1426.616019257092</v>
       </c>
     </row>
@@ -3915,12 +4211,15 @@
         <v>1365.266702555798</v>
       </c>
       <c r="I99" t="n">
+        <v>5678.014626260931</v>
+      </c>
+      <c r="J99" t="n">
         <v>39.46350174033879</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>235.6856847047497</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>1146.881524622685</v>
       </c>
     </row>
@@ -3950,12 +4249,15 @@
         <v>1077.07076006044</v>
       </c>
       <c r="I100" t="n">
+        <v>4312.747923705135</v>
+      </c>
+      <c r="J100" t="n">
         <v>34.90888891809231</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>196.2221829644109</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>911.195839917935</v>
       </c>
     </row>
@@ -3985,12 +4287,15 @@
         <v>839.4227786321665</v>
       </c>
       <c r="I101" t="n">
+        <v>3235.677163644694</v>
+      </c>
+      <c r="J101" t="n">
         <v>30.46492827455654</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>161.3132940463186</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>714.973656953524</v>
       </c>
     </row>
@@ -4020,12 +4325,15 @@
         <v>645.8239930999952</v>
       </c>
       <c r="I102" t="n">
+        <v>2396.254385012528</v>
+      </c>
+      <c r="J102" t="n">
         <v>26.20796687631432</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>130.8483657717621</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>553.6603629072055</v>
       </c>
     </row>
@@ -4055,12 +4363,15 @@
         <v>490.1362429782332</v>
       </c>
       <c r="I103" t="n">
+        <v>1750.430391912533</v>
+      </c>
+      <c r="J103" t="n">
         <v>22.20628231718188</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>104.6403988954478</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>422.8119971354434</v>
       </c>
     </row>
@@ -4090,12 +4401,15 @@
         <v>366.6444501220841</v>
       </c>
       <c r="I104" t="n">
+        <v>1260.2941489343</v>
+      </c>
+      <c r="J104" t="n">
         <v>18.51659251685064</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>82.43411657826591</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>318.1715982399956</v>
       </c>
     </row>
@@ -4125,12 +4439,15 @@
         <v>270.1086239237381</v>
       </c>
       <c r="I105" t="n">
+        <v>893.6496988122157</v>
+      </c>
+      <c r="J105" t="n">
         <v>15.18144509214673</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>63.91752406141526</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>235.7374816617297</v>
       </c>
     </row>
@@ -4160,12 +4477,15 @@
         <v>195.8023066344867</v>
       </c>
       <c r="I106" t="n">
+        <v>623.5410748884775</v>
+      </c>
+      <c r="J106" t="n">
         <v>12.22764398578087</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>48.73607896926853</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>171.8199576003144</v>
       </c>
     </row>
@@ -4195,12 +4515,15 @@
         <v>139.5353697177379</v>
       </c>
       <c r="I107" t="n">
+        <v>427.7387682539909</v>
+      </c>
+      <c r="J107" t="n">
         <v>9.665979343269099</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>36.50843498348766</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>123.0838786310459</v>
       </c>
     </row>
@@ -4230,12 +4553,15 @@
         <v>97.66018974510648</v>
       </c>
       <c r="I108" t="n">
+        <v>288.203398536253</v>
+      </c>
+      <c r="J108" t="n">
         <v>7.492056608752882</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>26.84245564021856</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>86.57544364755826</v>
       </c>
     </row>
@@ -4265,12 +4591,15 @@
         <v>67.06157296084534</v>
       </c>
       <c r="I109" t="n">
+        <v>190.5432087911465</v>
+      </c>
+      <c r="J109" t="n">
         <v>5.688085114570822</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>19.35039903146568</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>59.7329880073397</v>
       </c>
     </row>
@@ -4300,12 +4629,15 @@
         <v>45.13188266165483</v>
       </c>
       <c r="I110" t="n">
+        <v>123.4816358303011</v>
+      </c>
+      <c r="J110" t="n">
         <v>4.225478935006335</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>13.66231391689485</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>40.38258897587401</v>
       </c>
     </row>
@@ -4335,12 +4667,15 @@
         <v>29.7337271039271</v>
       </c>
       <c r="I111" t="n">
+        <v>78.34975316864629</v>
+      </c>
+      <c r="J111" t="n">
         <v>3.067889084600687</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>9.436834981888522</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>26.72027505897916</v>
       </c>
     </row>
@@ -4370,12 +4705,15 @@
         <v>19.15328723342599</v>
       </c>
       <c r="I112" t="n">
+        <v>48.61602606471919</v>
+      </c>
+      <c r="J112" t="n">
         <v>2.174387958117538</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>6.368945897287835</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>17.28344007709064</v>
       </c>
     </row>
@@ -4405,12 +4743,15 @@
         <v>12.04767644254485</v>
       </c>
       <c r="I113" t="n">
+        <v>29.4627388312932</v>
+      </c>
+      <c r="J113" t="n">
         <v>1.502504484693709</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>4.194557939170297</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>10.9144941798028</v>
       </c>
     </row>
@@ -4440,12 +4781,15 @@
         <v>7.389746332507442</v>
       </c>
       <c r="I114" t="n">
+        <v>17.41506238874835</v>
+      </c>
+      <c r="J114" t="n">
         <v>1.010849554311797</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>2.692053454476587</v>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>6.719936240632504</v>
       </c>
     </row>
@@ -4475,12 +4819,15 @@
         <v>4.413471865242106</v>
       </c>
       <c r="I115" t="n">
+        <v>10.02531605624091</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.6611792120912194</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>1.68120390016479</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>4.027882786155917</v>
       </c>
     </row>
@@ -4510,12 +4857,15 @@
         <v>2.562519047183389</v>
       </c>
       <c r="I116" t="n">
+        <v>5.611844190998803</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.4197954226982328</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>1.020024688073571</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>2.346678885991127</v>
       </c>
     </row>
@@ -4545,12 +4895,15 @@
         <v>1.44393593421815</v>
       </c>
       <c r="I117" t="n">
+        <v>3.049325143815414</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.2582939567078331</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>0.6002292653753375</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>1.326654197917557</v>
       </c>
     </row>
@@ -4580,12 +4933,15 @@
         <v>0.7881706713728834</v>
       </c>
       <c r="I118" t="n">
+        <v>1.605389209597264</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.1537311959418373</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>0.3419353086675044</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>0.7264249325422193</v>
       </c>
     </row>
@@ -4615,12 +4971,15 @@
         <v>0.4159211061141143</v>
       </c>
       <c r="I119" t="n">
+        <v>0.8172185382243807</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.08833402895527639</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>0.1882041127256671</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>0.3844896238747149</v>
       </c>
     </row>
@@ -4650,12 +5009,15 @@
         <v>0.2117200277686735</v>
       </c>
       <c r="I120" t="n">
+        <v>0.4012974321102665</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.04889711173654775</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>0.09987008377039068</v>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>0.1962855111490479</v>
       </c>
     </row>
@@ -4685,12 +5047,15 @@
         <v>0.10370686600718</v>
       </c>
       <c r="I121" t="n">
+        <v>0.189577404341593</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.0260142382012038</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>0.05097297203384292</v>
       </c>
-      <c r="K121" t="n">
+      <c r="L121" t="n">
         <v>0.09641542737865717</v>
       </c>
     </row>
@@ -4720,12 +5085,15 @@
         <v>0.04874516835767628</v>
       </c>
       <c r="I122" t="n">
+        <v>0.08587053833441297</v>
+      </c>
+      <c r="J122" t="n">
         <v>0.0132676697784493</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>0.02495873383263912</v>
       </c>
-      <c r="K122" t="n">
+      <c r="L122" t="n">
         <v>0.04544245534481425</v>
       </c>
     </row>
@@ -4755,12 +5123,15 @@
         <v>0.02191162035743423</v>
       </c>
       <c r="I123" t="n">
+        <v>0.03712536997673668</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.006468433863290796</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>0.01169106405418982</v>
       </c>
-      <c r="K123" t="n">
+      <c r="L123" t="n">
         <v>0.02048372151217513</v>
       </c>
     </row>
@@ -4790,12 +5161,15 @@
         <v>0.009377801674112328</v>
       </c>
       <c r="I124" t="n">
+        <v>0.01521374961930244</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.003005058171979783</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>0.005222630190899025</v>
       </c>
-      <c r="K124" t="n">
+      <c r="L124" t="n">
         <v>0.008792657457985307</v>
       </c>
     </row>
@@ -4825,12 +5199,15 @@
         <v>0.003794486803439749</v>
       </c>
       <c r="I125" t="n">
+        <v>0.005835947945190116</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.001325627631866543</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>0.002217572018919242</v>
       </c>
-      <c r="K125" t="n">
+      <c r="L125" t="n">
         <v>0.003570027267086282</v>
       </c>
     </row>
@@ -4860,12 +5237,15 @@
         <v>0.001430972984388209</v>
       </c>
       <c r="I126" t="n">
+        <v>0.002041461141750366</v>
+      </c>
+      <c r="J126" t="n">
         <v>0.0005530652398836606</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>0.0008919443870526984</v>
       </c>
-      <c r="K126" t="n">
+      <c r="L126" t="n">
         <v>0.001352455248167041</v>
       </c>
     </row>
@@ -4895,12 +5275,15 @@
         <v>0.0004839911748590407</v>
       </c>
       <c r="I127" t="n">
+        <v>0.0006104881573621576</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.0002172474332237332</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>0.0003388791471690378</v>
       </c>
-      <c r="K127" t="n">
+      <c r="L127" t="n">
         <v>0.0004605108611143424</v>
       </c>
     </row>
@@ -4930,12 +5313,15 @@
         <v>0.0001264969825031168</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0001216317139453046</v>
+        <v>0.0001264969825031168</v>
       </c>
       <c r="J128" t="n">
         <v>0.0001216317139453046</v>
       </c>
       <c r="K128" t="n">
+        <v>0.0001216317139453046</v>
+      </c>
+      <c r="L128" t="n">
         <v>0.0001216317139453046</v>
       </c>
     </row>

--- a/exercisesLifeContingencies/survivalModels/lifeTables3/GRM_95_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/GRM_95_comm.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/exercisesLifeContingencies/survivalModels/lifeTables3/GRM_95_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/GRM_95_comm.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GRM_95" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GRM_95" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>qx</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>exo</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Nx</t>
+  </si>
+  <si>
+    <t>Sx</t>
+  </si>
+  <si>
+    <t>Cx</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,4911 +406,4883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>qx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>px</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Dx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Nx</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sx</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cx</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mx</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>100000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>79.72537171503463</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>100000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2451169.497270546</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>54228642.20809022</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>5724.250104978818</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>365452.4892670722</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>100000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>78.72537171503463</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>96153.84615384614</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2351169.497270546</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>51777472.71081967</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>5724.250104978817</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>359728.2391620934</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>100000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>77.72537171503463</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>92455.62130177513</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2255015.651116699</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>49426303.21354912</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>5724.250104978817</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>354003.9890571146</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>100000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>76.72537171503464</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>88899.63586709146</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2162560.029814925</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>47171287.56243242</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>5724.250104978817</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>348279.7389521358</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>100000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>75.72537171503463</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>85480.41910297255</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2073660.393947833</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>45008727.53261749</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>5724.250104978818</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>342555.488847157</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>100000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>74.72537171503464</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>82192.71067593514</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1988179.974844861</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>42935067.13866967</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>5724.250104978818</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>336831.2387421782</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>100000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>73.72537171503463</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>79031.45257301455</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1905987.264168925</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>40946887.16382481</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>5724.250104978818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>331106.9886371995</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>100000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>72.72537171503463</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>75991.7813202063</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1826955.811595911</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>39040899.89965588</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>5724.250104978818</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>325382.7385322206</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>100000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>71.72537171503463</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>73069.02050019836</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1750964.030275705</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>37213944.08805997</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>5724.250104978818</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>319658.4884272417</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>100000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>70.72537171503463</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>70258.67355788303</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1677895.009775507</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>35462980.05778426</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>5724.250104978817</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>313934.2383222628</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>100000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>69.72537171503464</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>67556.41688257983</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1607636.336217623</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>33785085.04800875</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>5724.250104978817</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>308209.9882172841</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>100000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>68.72537171503464</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>64958.09315632674</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1540079.919335044</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>32177448.71179114</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>5724.250104978817</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>302485.7381123052</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>100000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>67.72537171503464</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>62459.70495800649</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1475121.826178717</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>30637368.79245609</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>5724.250104978818</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>296761.4880073265</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>100000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>66.72537171503464</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>60057.40861346776</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1412662.12122071</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>29162246.96627738</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>5724.250104978818</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>291037.2379023476</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>100000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>65.72537171503464</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>57747.50828218054</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1352604.712607243</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>27749584.84505667</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>5724.250104978818</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>285312.9877973688</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>100000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>128.79</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.0012879</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.9987121</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>64.72537171503463</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>55526.45027132744</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1294857.204325062</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>26396980.13244943</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>68.76203394657942</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>5724.250104978818</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>279588.73769239</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>99871.21000000001</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>128.73398969</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.001289</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.998711</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>63.80819423839426</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>53322.0555346375</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1239330.754053735</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>25102122.92812436</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>66.08858613860359</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>5655.488071032239</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>273864.4875874111</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>99742.47601031001</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>128.687742548502</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.0012902</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.9987098</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>62.88990382442395</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>51205.11865870514</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1186008.698519097</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>23862792.17407063</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>63.52388855140516</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>5589.399484893635</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>268208.9995163789</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>99613.78826776151</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>128.6312847901604</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.0012913</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.9987087</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>61.97050326773999</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>49172.1671294343</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>1134803.579860392</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>22676783.47555153</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>61.05386482138318</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>5525.87559634223</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>262619.6000314852</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>99485.15698297136</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>128.5746168847922</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.0012924</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.9987076</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>61.04998276047858</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>47219.87606732699</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1085631.412730958</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>21541979.89569114</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>58.67977675905133</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>5464.821731520846</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>257093.7244351431</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:12">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>99356.58236608657</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>128.5276749487696</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.0012936</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.9987064</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>60.12833882557675</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>45345.04721105535</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1038411.536663631</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>20456348.48296018</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>56.40226256944347</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>5406.141954761795</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>251628.9027036222</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:12">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>99228.0546911378</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>128.4705624086161</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.0012947</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.9987053</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>59.2055739560463</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>43544.60467113763</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>993066.4894525753</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>19417936.94629655</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>54.20884583434795</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>5349.739692192352</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>246222.7607488605</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>99099.58412872918</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>128.4132411140073</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.0012958</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.9987042</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>58.28167859532368</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>41815.60333795183</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>949521.8847814377</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>18424870.45684398</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>52.10063346665189</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>5295.530846358004</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>240873.0210566681</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>98971.17088761518</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>128.3656086412369</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.001297</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.998703</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>57.35664924141069</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>40155.2102684101</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>907706.2814434858</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>17475348.57206254</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>50.0781804981999</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>5243.430212891351</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>235577.4902103101</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>98842.80527897394</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>128.3078455326361</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.0012981</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.9987019</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>56.43048808445623</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>38560.70092374228</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>867551.071175076</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>16567642.29061905</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>48.13042872029793</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>5193.352032393153</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>230334.0599974187</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>98714.49743344131</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>128.2498750655269</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.0012992</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.9987008000000001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>55.50318581996912</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>37029.46661333959</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>828990.3702513337</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>15700091.21944398</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>46.25834906158728</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>5145.221603672853</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>225140.7079650256</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:12">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>98586.24755837579</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>128.2015563249119</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.0013004</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.9986996</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>54.57473892077498</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>35558.99800991878</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>791960.9036379941</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>14871100.84919264</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>44.4624240500946</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>5098.963254611266</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>219995.4863613527</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:12">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>98458.04600205088</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>128.1431468716692</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.0013015</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.9986985</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>53.64514927288947</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>34146.88181625642</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>756401.9056280752</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>14079139.94555465</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>42.73285258063243</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>5054.500830561172</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>214896.5231067415</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:12">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>98329.90285517921</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>128.0845314591564</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.0013026</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.9986974</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>52.71440782467328</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>32790.80735535823</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>722255.0238118188</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>13322738.03992657</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>41.07048621258618</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>5011.76797798054</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>209842.0222761803</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:12">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>98201.81832372006</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>128.0355307304662</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.0013038</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.9986962</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>51.78251102353254</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>31488.55197086263</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>689464.2164564605</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>12600483.01611475</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>39.47574428808721</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>4970.697491767954</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>204830.2542981998</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:12">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>98073.7827929896</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>128.0549381928065</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.0013057</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.9986943</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>50.84946045006733</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>30237.97807384906</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>657975.6644855979</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>11911018.79965829</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>37.96319997213914</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>4931.221747479867</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>199859.5568064318</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:12">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>97945.7278547968</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>128.7594538379159</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.0013146</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.9986853999999999</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>49.91528769120573</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>29037.01571719042</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>627737.6864117489</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>11253043.13517269</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>36.70390467482551</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>4893.258547507729</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>194928.3350589519</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:12">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>97816.96840095888</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>130.3411103942777</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.0013325</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.9986675</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>48.98033453899069</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>27883.50351570058</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>598700.6706945585</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>10625305.44876095</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>35.72573887949136</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>4856.554642832902</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>190035.0765114442</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:12">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>97686.6272905646</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>132.8147384642516</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.0013596</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.9986404</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>48.04502077917895</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>26775.33533390952</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>570817.167178858</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>10026604.77806639</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>35.00360184613787</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>4820.82890395341</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>185178.5218686113</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:12">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>97553.81255210035</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>136.2338992290081</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.0013965</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.9986035</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>47.10975099663396</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>25710.51114229763</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>544041.8318449483</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>9455787.610887531</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>34.5237777021333</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>4785.825302107272</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>180357.6929646579</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:12">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>97417.57865287134</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>140.6320165432851</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.0014436</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.9985564</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>46.17493253992598</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>24687.12155143019</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>518331.3207026506</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>8911745.779042583</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>34.26762372273522</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>4751.301524405139</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>175571.8676625506</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:12">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>97276.94663632805</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>146.0516076797829</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.0015014</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.9984986</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>45.24096419583909</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>23703.34925265245</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>493644.1991512204</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>8393414.458339933</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>34.2194313153196</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>4717.033900682404</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>170820.5661381455</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:12">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>97130.89502864827</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>152.5926360900064</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.001571</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.998429</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>44.30823928630355</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>22757.46254238896</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>469940.8498985679</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>7899770.259188711</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>34.37689774432025</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>4682.814469367085</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>166103.5322374631</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:12">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>96978.30239255827</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>160.3536230060951</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.0016535</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.9983465</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>43.37717032087764</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>21847.79862378352</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>447183.3873561791</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>7429829.409290141</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>34.73589906194813</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>4648.437571622764</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>161420.717768096</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:12">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>96817.94876955218</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>169.4410921415933</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.0017501</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.9982499</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>42.44818514501493</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>20972.76277765298</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>425335.5887323955</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>6982646.021933964</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>35.29272320881777</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>4613.701672560815</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>156772.2801964732</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:12">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>96648.5076774106</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>179.9305267430353</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.0018617</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.9981383</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>41.52172737008531</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>20130.82533222674</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>404362.8259547424</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>6557310.433201569</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>36.03611300096781</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>4578.408949351998</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>152158.5785239124</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:12">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>96468.57715066757</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>191.9338810989682</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.0019896</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.9980104</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>40.59823996342521</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>19320.52670644782</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>384232.0006225157</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>6152947.607246826</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>36.96165378379671</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>4542.37283635103</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>147580.1695745604</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:12">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>96276.64326956859</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>205.531378051875</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.0021348</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.9978652</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>39.67817846730376</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>18540.4678716468</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>364911.4739160679</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>5768715.606624311</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>38.05787578114575</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>4505.411182567233</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>143037.7967382094</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>96071.11189151672</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>220.8674862385969</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.002299</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.9977009999999999</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>38.76199497417463</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>17789.31507772539</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>346371.0060444212</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>5403804.132708242</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>39.3246493881641</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>4467.353306786088</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>138532.3855556422</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:12">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>95850.24440527812</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>238.2357824693188</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.0024855</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.9975145</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>37.85016199660483</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>17065.78600227086</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>328581.6909666957</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>5057433.126663822</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>40.7855876044656</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>4428.028657397924</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>134065.0322488561</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:12">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>95612.0086228088</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>257.9994440677873</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0026984</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.9973016</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>36.94322713765546</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>16368.62402996367</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>311515.9049644248</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>4728851.435697126</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>42.47028373312882</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>4387.243069793459</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>129637.0035914581</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>95354.00917874102</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>280.4742825983488</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.0029414</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.9970586</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>36.04183161608832</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>15696.59128353963</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>295147.2809344612</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>4417335.530732701</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>44.39418615519563</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>4344.77278606033</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>125249.7605216647</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:12">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>95073.53489614268</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>306.0131867702145</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0032187</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.9967813</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>35.14668276878442</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>15048.48204801753</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>279450.6896509216</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>4122188.249798239</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>46.57360496918655</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>4300.378599905134</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>120904.9877356044</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>94767.52170937246</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>334.8894682165804</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.0035338</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.9964662</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>34.2585601463274</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>14423.12067197074</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>264402.207602904</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>3842737.560147317</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>49.00809983712519</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>4253.804994935947</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>116604.6091356992</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:12">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>94432.63224115588</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>365.595935721635</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0038715</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.9961285</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>33.37827920939757</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>13819.3771616732</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>249979.0869309333</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>3578335.352544413</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>51.44396027059403</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>4204.796895098822</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>112350.8041407633</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>94067.03630543425</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>396.7371323217995</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0042176</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.9957824</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>32.50606217912405</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>13236.4186951844</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>236159.7097692601</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>3328356.26561348</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>53.67876873924014</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>4153.352934828228</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>108146.0072456645</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:12">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>93670.29917311243</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>428.8038955546741</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0045778</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.9954222</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>31.64162268696861</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>12673.6468997073</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>222923.2910740757</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>3092196.555844219</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>55.78598151680777</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>4099.674166088987</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>103992.6543108362</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:12">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>93241.49527755777</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>462.2540369880205</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0049576</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.9950424</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>30.78483842028901</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>12130.41296050944</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>210249.6441743684</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>2869273.264770144</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>57.82474547405925</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>4043.88818457218</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>99892.98014474726</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>92779.24124056975</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>497.5379590766794</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0053626</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.9946374</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>29.93572657837396</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>11606.03387040041</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>198119.231213859</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>2659023.620595776</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>59.84472810904732</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>3986.063439098121</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>95849.09196017508</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:12">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>92281.70328149307</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>535.0954564777376</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.0057985</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.9942015</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>29.09442966690571</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>11099.80322419903</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>186513.1973434586</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>2460904.389381917</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>61.88673941876739</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>3926.218710989074</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>91863.02852107695</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:12">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>91746.60782501534</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>575.3246283491062</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.0062708</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.9937292</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>28.26120149376732</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>10611.00097615723</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>175413.3941192595</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>2274391.192038458</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>63.98025473200646</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>3864.331971570306</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>87936.80981008787</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:12">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>91171.28319666623</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>618.6062736177</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.0067851</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.9932149</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>27.43638497667907</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>10138.90529926533</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>164802.3931431023</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>2098977.797919198</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>66.1475830250434</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>3800.3517168383</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>84072.47783851757</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:12">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>90552.67692304854</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>665.2905173536376</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.007347</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.992653</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>26.62039960000507</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>9682.799820114691</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>154663.487843837</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>1934175.404776096</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>68.40339449844484</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>3734.204133813256</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>80272.12612167928</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:12">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>89887.3864056949</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>715.6923593007833</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0079621</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.9920379</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>25.81372654896028</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>9241.981047919526</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>144980.6880237223</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>1779511.916932259</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>70.7553627900385</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>3665.800739314811</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>76537.92198786604</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:12">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>89171.69404639411</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>770.0956669540643</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.008636100000000001</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.9913639</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>25.01689461557898</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>8815.764875594121</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>135738.7069758027</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>1634531.228908537</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>73.20560292511384</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>3595.045376524773</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>72872.12124855121</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:12">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>88401.59837944005</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>828.7119438482229</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.0093744</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.9906256</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>24.23046942255915</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>8403.491392838463</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>126922.9421002086</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1498792.521932734</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>75.74777857021623</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>3521.839773599659</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>69277.07587202644</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:12">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>87572.88643559183</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>891.7371879963446</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0101828</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.9898172</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>23.45503348849368</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>8004.532406851383</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>118519.4507073702</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>1371869.579832525</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>78.37360826200602</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>3446.091995029443</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>65755.23609842677</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:12">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>86681.14924759549</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>959.2829424932897</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0110668</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.9889332</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>22.69118468389282</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>7618.29216755663</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>110514.9183005188</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>1253350.129125156</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>81.06741899991896</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>3367.718386767437</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>62309.14410339732</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:12">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>85721.86630510219</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1025.053505089782</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.0119579</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.9880421</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>21.93951834551902</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>7244.213511342994</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>102896.6261329621</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>1142835.210824637</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>83.29382764162344</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>3286.650967767518</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>58941.42571662988</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:12">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>84696.81280001241</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1085.652216151839</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.0128181</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.9871818999999999</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>21.19899273069337</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>6882.296087111255</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>95652.41262161915</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>1039938.584691675</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>84.82496103288535</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>3203.357140125895</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>55654.77474886236</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:12">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>83611.16058386058</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1145.196983168963</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.0136967</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.9863033</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>20.46775956963288</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>6532.767430420244</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>88770.11653450789</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>944286.1720700556</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>86.03591890792013</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>3118.532179093009</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>52451.41760873647</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:12">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>82465.96360069161</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1207.301707114125</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.01464</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.98536</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>19.74504994521754</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>6195.471225726929</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>82237.34910408765</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>855516.0555355478</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>87.21317186984831</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>3032.496260185089</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>49332.88542964346</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:12">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>81258.66189357749</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1275.054041370692</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0156913</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.9843087</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>19.03098354430618</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>5869.970699021429</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>76041.87787836073</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>773278.7064314602</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>88.56487618226437</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>2945.283088315241</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>46300.38916945837</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:12">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>79983.6078522068</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1351.019116953195</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0168912</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.9831088</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>18.32639414271782</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>5555.637719030648</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>70171.90717933929</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>697236.8285530994</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>90.23210369201006</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>2856.718212132976</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>43355.10608114312</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:12">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>78632.58873525361</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1437.215003867472</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0182776</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.9817224</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>17.63267681330674</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>5251.727241529767</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>64616.26946030866</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>627064.9213737602</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>92.29708637479277</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>2766.486108440967</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>40498.38786901015</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:12">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>77195.37373138613</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1535.114921559718</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.0198861</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.9801139</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>16.95165111166532</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>4957.440645865368</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>59364.54221877889</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>562448.6519134515</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>94.79246194975315</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>2674.189022066173</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>37731.90176056918</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:12">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>75660.25880982641</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1645.5803650102</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.0217496</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.9782504</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>16.28544821338144</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>4671.977389843868</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>54407.10157291353</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>503084.1096946726</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>97.70542253668094</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>2579.39656011642</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>35057.712738503</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:12">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>74014.67844481621</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1768.151456303903</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0238892</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.9761108000000001</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>15.63640864688779</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>4394.580529236268</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>49735.12418306967</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>448677.0081217591</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>100.9452049798376</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>2481.691137579739</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>32478.31617838659</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:12">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>72246.52698851231</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1899.093882378131</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0262863</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.9737137</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>15.00685500753377</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>4124.612996208883</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>45340.5436538334</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>398941.8839386894</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>104.2507832713899</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>2380.745932599902</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>29996.62504080685</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:12">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>70347.43310613418</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>2034.018646087453</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.0289139</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.9710861</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>14.39848094725767</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>3861.723251544843</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>41215.93065762452</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>353601.340284856</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>107.3629614642715</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>2276.495149328512</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>27615.87910820695</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:12">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>68313.41446004673</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>2168.691318131535</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.0317462</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.9682538000000001</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>13.81230551776786</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>3605.832472713461</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>37354.20740607967</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>312385.4096272315</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>110.0687296589001</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>2169.132187864241</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>25339.38395887844</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:12">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>66144.72314191519</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>2299.104588272887</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0347587</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.9652413</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>13.24877694026902</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>3357.077878719428</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>33748.37493336621</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>275031.2022211518</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>112.1996758298509</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>2059.06345820534</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>23170.2517710142</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:12">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>63845.61855364231</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>2421.53023594069</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.0379279</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.9620721</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>12.70786516311416</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>3115.75982293883</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>30391.29705464678</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>241282.8272877856</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>113.6290644119631</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>1946.86378237549</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>21111.18831280886</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:12">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>61424.08831770161</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>2532.613439880146</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.0412316</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.9587684</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>12.18913750135168</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>2882.293842259988</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>27275.53723170795</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>210891.5302331388</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>114.2707565255067</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>1833.234717963526</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>19164.32453043336</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:12">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>58891.47487782146</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>2629.416016082412</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.0446485</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.9553515</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>11.69182599400614</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>2657.165630262943</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>24393.24338944796</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>183615.9930014308</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>114.075441964226</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>1718.963961438019</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>17331.08981246984</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:12">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>56262.05886173905</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>2709.507614104833</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0481587</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.9518413</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>11.21487771150843</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>2440.891510211681</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>21736.07775918502</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>159222.7496119828</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>113.0290018969531</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>1604.888519473794</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>15612.12585103182</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:12">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>53552.55124763422</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>2770.969659206337</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.051743</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.948257</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>10.75700020739637</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>2233.982065614278</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>19295.18624897334</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>137486.6718527979</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>111.1470519433457</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>1491.859517576841</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>14007.23733155802</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:12">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>50781.58158842789</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>2812.451567586378</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.0553833</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.9446167</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>10.31668809974128</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>2036.912626531921</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>17061.20418335906</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>118191.4856038245</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>108.4720606432744</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>1380.712465633495</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>12515.37781398118</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:12">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>47969.13002084151</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2833.171944942949</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>0.0590624</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>0.9409376</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>9.892244917691253</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>1850.097772560496</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>15024.29155682714</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>101130.2814204655</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>105.0684756558433</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>1272.24040499022</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>11134.66534834769</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:12">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>45135.95807589856</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2832.922299867313</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>0.06276420000000001</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.9372358</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>9.48179360426372</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>1673.87169026771</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>13174.19378426664</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>86105.9898636383</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>101.0184784060583</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>1167.171929334377</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>9862.424943357468</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:12">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>42303.03577603125</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2812.01815774728</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.0664732</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.9335268</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>9.083280540781431</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>1508.47353146674</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>11500.32209399893</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>72931.79607937165</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>96.41640649220662</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>1066.153450928319</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>8695.253014023092</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:12">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>39491.01761828396</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2771.282161363077</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>0.070175</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>0.929825</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>8.694466126501599</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>1354.038912225813</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>9991.848562532192</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>61431.47398537273</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>91.36507756292922</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>969.7370444361122</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>7629.099563094774</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:12">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>36719.73545692089</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2713.309380276981</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>0.0738924</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>0.9261076</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>8.312912243165755</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>1210.59541496189</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>8637.809650306379</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>51439.62542284054</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>86.01326984666346</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>878.3719668731829</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>6659.362518658661</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:12">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>34006.42607664391</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2645.383689000384</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>0.0777907</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>0.9222093</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>7.93628995503951</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>1078.020783001308</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>7427.214235344488</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>42801.81577253416</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>80.63460704251909</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>792.3586970265194</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>5780.99055178548</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:12">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>31361.04238764353</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2573.496546642744</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>0.0820603</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.9179397</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>7.563559926189761</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>955.9238381510463</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>6349.19345234318</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>35374.60153718967</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>75.42634320752529</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>711.7240899840004</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>4988.63185475896</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:12">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>28787.54584100079</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2501.061982666148</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>0.08688</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>0.91312</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>7.195015180397754</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>843.7311934761731</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>5393.269614192134</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>29025.40808484649</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>70.48400585500953</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>636.297746776475</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92">
         <v>4276.907764774959</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:12">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>26286.48385833464</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2429.307464142169</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.0924166</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>0.9075834</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>6.832021180565264</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>740.79598787208</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>4549.53842071596</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>23632.13847065435</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>65.82869855074891</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>565.8137409214655</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93">
         <v>3640.610017998484</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:12">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>23857.17639419247</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2357.716471485384</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>0.09882630000000001</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.9011737</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>6.476792634776333</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>646.4751359416357</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>3808.742432843881</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>19082.6000499384</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>61.43148627606622</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>499.9850423707167</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94">
         <v>3074.796277077018</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:12">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>21499.45992270709</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2284.410064465295</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>0.1062543</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>0.8937457</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>6.132231538466262</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>560.1792213601218</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>3162.267296902246</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>15273.85761709451</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>57.2321644616969</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>438.5535560946505</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95">
         <v>2574.811234706302</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:12">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>19215.04985824179</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>2200.150109838487</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>0.1145014</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>0.8854986</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>5.801827844840273</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>481.4017022307278</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>2602.088075542124</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>12111.59032019227</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>53.00112391134755</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>381.3213916329536</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96">
         <v>2136.257678611651</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:12">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>17014.8997484033</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>2097.53728883404</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>0.1232765</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>0.8767235</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>5.487392690220259</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>409.885128233583</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>2120.686373311396</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>9509.502244650141</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>48.58577308719932</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>328.320267721606</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97">
         <v>1754.936286978697</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:12">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>14917.36245956926</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1977.734964472217</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>0.1325794</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>0.8674206</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>5.188672301153397</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>345.534542522015</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>1710.801245077813</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>7388.815871338745</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>44.04880992965695</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>279.7344946344068</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98">
         <v>1426.616019257092</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:12">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>12939.62749509704</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1842.734939502269</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>0.1424102</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>0.8575898</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>4.905304302380412</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>288.1959424953575</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>1365.266702555798</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>5678.014626260931</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>39.46350174033879</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>235.6856847047497</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99">
         <v>1146.881524622685</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:12">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>11096.89255559477</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>1695.261178825658</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>0.152769</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>0.8472310000000001</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>4.63684316485622</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>237.6479814282741</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>1077.07076006044</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>4312.747923705135</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>34.90888891809231</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>196.2221829644109</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100">
         <v>911.195839917935</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:12">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>9401.631376769117</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>1538.629623943976</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>0.1636556</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>0.8363444</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>4.382780687741855</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>193.5987855321713</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>839.4227786321665</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>3235.677163644694</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>30.46492827455654</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>161.3132940463186</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101">
         <v>714.973656953524</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:12">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>7863.001752825141</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1376.577289467448</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>0.1750702</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>0.8249298</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>4.14256194905096</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>155.6877501217619</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>645.8239930999952</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>2396.254385012528</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>26.20796687631432</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>130.8483657717621</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L102">
         <v>553.6603629072055</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:12">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>6486.424463357694</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>1213.043752238573</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>0.1870127</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>0.8129873</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>3.915602332526914</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>123.4917928561491</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>490.1362429782332</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>1750.430391912533</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>22.20628231718188</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>104.6403988954478</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103">
         <v>422.8119971354434</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:12">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>5273.38071111912</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>1051.949804396175</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>0.199483</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>0.800517</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>3.70129851047724</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>96.53582619834607</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>366.6444501220841</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>1260.2941489343</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>18.51659251685064</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>82.43411657826591</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L104">
         <v>318.1715982399956</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:12">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>4221.430906722945</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>896.9751269206702</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>0.2124813</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>0.7875187</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>3.499038759298352</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>74.30631728925137</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>270.1086239237381</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>893.6496988122157</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>15.18144509214673</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>63.91752406141526</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L105">
         <v>235.7374816617297</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:12">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>3324.455779802275</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>751.3519396536627</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>0.2260075</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>0.7739925</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>3.308212756469596</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>56.2669369167488</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>195.8023066344867</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>623.5410748884775</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>12.22764398578087</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>48.73607896926853</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L106">
         <v>171.8199576003144</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:12">
+      <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>2573.103840148613</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>617.7031675218362</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>0.2400615</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>0.7599385</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>3.12821701304547</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>41.87517997263144</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>139.5353697177379</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>427.7387682539909</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>9.665979343269099</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>36.50843498348766</v>
       </c>
-      <c r="L107" t="n">
+      <c r="L107">
         <v>123.0838786310459</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:12">
+      <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>1955.400672626776</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>497.9300711800365</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>0.2546435</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>0.7453565</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>2.958460142558206</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>30.59861678426113</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>97.66018974510648</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>288.203398536253</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>7.492056608752882</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>26.84245564021856</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L108">
         <v>86.57544364755826</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:12">
+      <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>1457.47060144674</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>393.1576501403029</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>0.2697534</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>0.7302466000000001</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>2.798368153438262</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>21.9296902991905</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>67.06157296084534</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>190.5432087911465</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>5.688085114570822</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>19.35039903146568</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L109">
         <v>59.7329880073397</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:12">
+      <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>1064.312951306437</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>303.7455503488856</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>0.2853912</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>0.7146087999999999</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>2.647386312292672</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>15.39815555772774</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>45.13188266165483</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>123.4816358303011</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>4.225478935006335</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>13.66231391689485</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110">
         <v>40.38258897587401</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:12">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>760.5674009575512</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>229.3543476738162</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>0.3015569</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>0.6984431</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>2.50498162392161</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>10.5804398705011</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>29.7337271039271</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>78.34975316864629</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>3.067889084600687</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>9.436834981888522</v>
       </c>
-      <c r="L111" t="n">
+      <c r="L111">
         <v>26.72027505897916</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:12">
+      <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>531.213053283735</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>169.05876669277</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>0.3182504</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>0.6817496000000001</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>2.370644185505749</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>7.105610790881142</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>19.15328723342599</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>48.61602606471919</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>2.174387958117538</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>6.368945897287835</v>
       </c>
-      <c r="L112" t="n">
+      <c r="L112">
         <v>17.28344007709064</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:12">
+      <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>362.1542865909651</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>121.4925866158156</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>0.3354719</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>0.6645281000000001</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>2.24388747056947</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>4.657930110037407</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>12.04767644254485</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>29.4627388312932</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>1.502504484693709</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>4.194557939170297</v>
       </c>
-      <c r="L113" t="n">
+      <c r="L113">
         <v>10.9144941798028</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:12">
+      <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>240.6616999751495</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>85.00683852543227</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>0.3532213</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>0.6467787</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>2.124249404305807</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>2.976274467265335</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>7.389746332507442</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>17.41506238874835</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>1.010849554311797</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>2.692053454476587</v>
       </c>
-      <c r="L114" t="n">
+      <c r="L114">
         <v>6.719936240632504</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:12">
+      <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>155.6548614497172</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>57.82556311176393</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>0.3714986</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>0.6285014</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>2.011290808286989</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>1.850952818058717</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>4.413471865242106</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>10.02531605624091</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>0.6611792120912194</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>1.68120390016479</v>
       </c>
-      <c r="L115" t="n">
+      <c r="L115">
         <v>4.027882786155917</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:12">
+      <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>97.8292983379533</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>38.18314689263686</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>0.3903038</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>0.6096962</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>1.904594179562669</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>1.118583112965239</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>2.562519047183389</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>5.611844190998803</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>0.4197954226982328</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>1.020024688073571</v>
       </c>
-      <c r="L116" t="n">
+      <c r="L116">
         <v>2.346678885991127</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:12">
+      <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>59.64615144531645</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>24.43327053960509</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>0.409637</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>0.590363</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>1.803760757509507</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>0.6557652628452665</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>1.44393593421815</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>3.049325143815414</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>0.2582939567078331</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>0.6002292653753375</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L117">
         <v>1.326654197917557</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:12">
+      <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>35.21288090571135</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>15.12386192324121</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>0.429498</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>0.5705020000000001</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>1.708405265081835</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>0.3722495652587692</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>0.7881706713728834</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>1.605389209597264</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>0.1537311959418373</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>0.3419353086675044</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L118">
         <v>0.7264249325422193</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:12">
+      <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>20.08901898247014</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>9.037786474064646</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>0.4498869</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>0.5501131</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>1.618143784039031</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>0.2042010783454407</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.4159211061141143</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>0.8172185382243807</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>0.08833402895527639</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>0.1882041127256671</v>
       </c>
-      <c r="L119" t="n">
+      <c r="L119">
         <v>0.3844896238747149</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:12">
+      <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>11.05123250840549</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>5.202961154517587</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>0.4708037</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>0.5291963</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>1.532570727799485</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>0.1080131617614935</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>0.2117200277686735</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.4012974321102665</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>0.04889711173654775</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>0.09987008377039068</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L120">
         <v>0.1962855111490479</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:12">
+      <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>5.848271353887906</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>2.878802216717155</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>0.4922484</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>0.5077516</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>1.451205493688231</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>0.0549616976495037</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>0.10370686600718</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.189577404341593</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>0.0260142382012038</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>0.05097297203384292</v>
       </c>
-      <c r="L121" t="n">
+      <c r="L121">
         <v>0.09641542737865717</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:12">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2.96946913717075</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1.526963686131994</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>0.5142211</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>0.4857789</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>1.373367791826222</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>0.02683354800024206</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>0.04874516835767628</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>0.08587053833441297</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>0.0132676697784493</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>0.02495873383263912</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L122">
         <v>0.04544245534481425</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:12">
+      <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>1.442505451038756</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.7742238336902429</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>0.5367216</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>0.4632784</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>1.297870989922005</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>0.01253381868332191</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>0.02191162035743423</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>0.03712536997673668</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>0.006468433863290796</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>0.01169106405418982</v>
       </c>
-      <c r="L123" t="n">
+      <c r="L123">
         <v>0.02048372151217513</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:12">
+      <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>0.6682816173485133</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.3740706353108303</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>0.55975</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>0.44025</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>1.222227908579387</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>0.005583314870672577</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.009377801674112328</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>0.01521374961930244</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>0.003005058171979783</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>0.005222630190899025</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L124">
         <v>0.008792657457985307</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:12">
+      <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>0.294210982037683</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.1716151487728655</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>0.5833064</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>0.4166936</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>1.140494965540913</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>0.00236351381905154</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>0.003794486803439749</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>0.005835947945190116</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>0.001325627631866543</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>0.002217572018919242</v>
       </c>
-      <c r="L125" t="n">
+      <c r="L125">
         <v>0.003570027267086282</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:12">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>0.1225958332648175</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.07446355672421745</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>0.6073906</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>0.3926094</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>1.03708855989368</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>0.000946981809529168</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>0.001430972984388209</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>0.002041461141750366</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>0.0005530652398836606</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>0.0008919443870526984</v>
       </c>
-      <c r="L126" t="n">
+      <c r="L126">
         <v>0.001352455248167041</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:12">
+      <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>0.04813227654060003</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.03041973354403353</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>0.6320028</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>0.3679972</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>0.8679972</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>0.000357494192355924</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>0.0004839911748590407</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>0.0006104881573621576</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>0.0002172474332237332</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>0.0003388791471690378</v>
       </c>
-      <c r="L127" t="n">
+      <c r="L127">
         <v>0.0004605108611143424</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:12">
+      <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>0.0177125429965665</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.0177125429965665</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>0.5</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>0.0001264969825031168</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>0.0001264969825031168</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>0.0001264969825031168</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>0.0001216317139453046</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>0.0001216317139453046</v>
       </c>
-      <c r="L128" t="n">
+      <c r="L128">
         <v>0.0001216317139453046</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>